--- a/Hábitos Saludables (Respuestas).xlsx
+++ b/Hábitos Saludables (Respuestas).xlsx
@@ -709,11 +709,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="891321530"/>
-        <c:axId val="1415221662"/>
+        <c:axId val="1919236930"/>
+        <c:axId val="1235628465"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="891321530"/>
+        <c:axId val="1919236930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,10 +765,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1415221662"/>
+        <c:crossAx val="1235628465"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1415221662"/>
+        <c:axId val="1235628465"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="891321530"/>
+        <c:crossAx val="1919236930"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1205,11 +1205,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1375882970"/>
-        <c:axId val="912277668"/>
+        <c:axId val="25560546"/>
+        <c:axId val="1461585910"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1375882970"/>
+        <c:axId val="25560546"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,10 +1261,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912277668"/>
+        <c:crossAx val="1461585910"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="912277668"/>
+        <c:axId val="1461585910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1339,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375882970"/>
+        <c:crossAx val="25560546"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1563,11 +1563,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="360386337"/>
-        <c:axId val="1570967361"/>
+        <c:axId val="804092148"/>
+        <c:axId val="520913355"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="360386337"/>
+        <c:axId val="804092148"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1619,10 +1619,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570967361"/>
+        <c:crossAx val="520913355"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570967361"/>
+        <c:axId val="520913355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1697,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360386337"/>
+        <c:crossAx val="804092148"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1789,11 +1789,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2025184285"/>
-        <c:axId val="970938827"/>
+        <c:axId val="1010011955"/>
+        <c:axId val="1952320924"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2025184285"/>
+        <c:axId val="1010011955"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1845,10 +1845,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="970938827"/>
+        <c:crossAx val="1952320924"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970938827"/>
+        <c:axId val="1952320924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1923,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2025184285"/>
+        <c:crossAx val="1010011955"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2144,11 +2144,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1553770161"/>
-        <c:axId val="29107965"/>
+        <c:axId val="1718943716"/>
+        <c:axId val="502829776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553770161"/>
+        <c:axId val="1718943716"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2200,10 +2200,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29107965"/>
+        <c:crossAx val="502829776"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29107965"/>
+        <c:axId val="502829776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +2278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1553770161"/>
+        <c:crossAx val="1718943716"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -2370,11 +2370,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="359313806"/>
-        <c:axId val="1941776121"/>
+        <c:axId val="165524277"/>
+        <c:axId val="327567566"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359313806"/>
+        <c:axId val="165524277"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,10 +2426,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1941776121"/>
+        <c:crossAx val="327567566"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1941776121"/>
+        <c:axId val="327567566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,7 +2504,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359313806"/>
+        <c:crossAx val="165524277"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
